--- a/instructions2.xlsx
+++ b/instructions2.xlsx
@@ -30,7 +30,7 @@
     <t>There are four question per job.</t>
   </si>
   <si>
-    <t>You will have to try to memorize these questions and then remember your answers to the questions.</t>
+    <t>You will have to try to memorize these questions in order and then remember your answers to the questions.</t>
   </si>
   <si>
     <t xml:space="preserve">You will be asked about the answers to these questions at end of the experiment. </t>
@@ -1513,7 +1513,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" ht="74.7" customHeight="1">
+    <row r="4" ht="86.7" customHeight="1">
       <c r="A4" t="s" s="10">
         <v>5</v>
       </c>

--- a/instructions2.xlsx
+++ b/instructions2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>instruct_text</t>
   </si>
@@ -20,29 +20,38 @@
     <t>instruct_text2</t>
   </si>
   <si>
-    <t xml:space="preserve">In addition, your task will be to answer job-related questions.
+    <t xml:space="preserve">In addition to reading all 16 stories, your task will be to answer perspective-related questions about each story.
 </t>
   </si>
   <si>
     <t>(press the space bar to continue)</t>
   </si>
   <si>
-    <t>There are four question per job.</t>
+    <t xml:space="preserve">You will answer the questions about each story after reading all 16 stories. </t>
   </si>
   <si>
-    <t>You will have to try to memorize these questions in order and then remember your answers to the questions.</t>
+    <t>There will be four questions to answer per story.</t>
   </si>
   <si>
-    <t xml:space="preserve">You will be asked about the answers to these questions at end of the experiment. </t>
+    <t xml:space="preserve">These questions are determined by the perspective you take during the story. </t>
   </si>
   <si>
-    <t>In order to help you memorize the questions, there will be a short quiz on them before the actual task begins.</t>
+    <t xml:space="preserve">The questions will be the same for the stories read with the same perspective. </t>
   </si>
   <si>
-    <t xml:space="preserve">In addition, before each story, there will be a reminder of what these questions are.  </t>
+    <t xml:space="preserve">Before reading the stories, you will learn the questions associated with each career perspective in order to help you answer them. </t>
   </si>
   <si>
-    <t>Press the space bar to begin learning the jobs and the questions for each one.</t>
+    <t>You will have to try to learn these questions with a series of pre-task quizzes.</t>
+  </si>
+  <si>
+    <t>Once the task has begun, remember your answers to the questions for each story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Again, you will be asked about the answers to these questions for each story at end of the experiment. </t>
+  </si>
+  <si>
+    <t>Press the space bar to begin learning the perspectives and the questions for each one.</t>
   </si>
 </sst>
 </file>
@@ -102,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -175,6 +184,36 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -193,7 +232,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -208,7 +247,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -247,21 +286,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="15"/>
       </left>
       <right style="thin">
@@ -326,7 +350,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -348,34 +372,40 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1464,10 +1494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1489,7 +1519,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" ht="62.7" customHeight="1">
+    <row r="2" ht="98.7" customHeight="1">
       <c r="A2" t="s" s="6">
         <v>2</v>
       </c>
@@ -1502,22 +1532,22 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" ht="26.7" customHeight="1">
-      <c r="A3" t="s" s="10">
+    <row r="3" ht="62.7" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" ht="86.7" customHeight="1">
-      <c r="A4" t="s" s="10">
+    <row r="4" ht="38.7" customHeight="1">
+      <c r="A4" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1525,32 +1555,32 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" ht="62.7" customHeight="1">
-      <c r="A5" t="s" s="10">
+      <c r="A5" t="s" s="13">
         <v>6</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" ht="74.7" customHeight="1">
-      <c r="A6" t="s" s="10">
+    <row r="6" ht="62.7" customHeight="1">
+      <c r="A6" t="s" s="13">
         <v>7</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" ht="62.7" customHeight="1">
-      <c r="A7" t="s" s="10">
+    <row r="7" ht="98.7" customHeight="1">
+      <c r="A7" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -1558,18 +1588,20 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" ht="62.7" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="A8" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="14"/>
+    <row r="9" ht="62.7" customHeight="1">
+      <c r="A9" t="s" s="13">
+        <v>10</v>
+      </c>
       <c r="B9" s="15"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1577,8 +1609,10 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="16"/>
+    <row r="10" ht="74.7" customHeight="1">
+      <c r="A10" t="s" s="13">
+        <v>11</v>
+      </c>
       <c r="B10" s="15"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1586,8 +1620,10 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="16"/>
+    <row r="11" ht="74.7" customHeight="1">
+      <c r="A11" t="s" s="13">
+        <v>12</v>
+      </c>
       <c r="B11" s="15"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1595,9 +1631,9 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
+    <row r="12" ht="20.35" customHeight="1">
       <c r="A12" s="16"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1605,8 +1641,8 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1614,8 +1650,8 @@
       <c r="G13" s="12"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1623,8 +1659,8 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1632,8 +1668,8 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1641,8 +1677,8 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -1650,8 +1686,8 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1659,8 +1695,8 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1668,8 +1704,8 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1677,8 +1713,8 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1686,13 +1722,40 @@
       <c r="G21" s="12"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/instructions2.xlsx
+++ b/instructions2.xlsx
@@ -45,7 +45,7 @@
     <t>You will have to try to learn these questions with a series of pre-task quizzes.</t>
   </si>
   <si>
-    <t>Once the task has begun, remember your answers to the questions for each story.</t>
+    <t>Once the story-reading task has begun, remember your answers to the questions for each story.</t>
   </si>
   <si>
     <t xml:space="preserve">Again, you will be asked about the answers to these questions for each story at end of the experiment. </t>
@@ -1598,7 +1598,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="62.7" customHeight="1">
+    <row r="9" ht="74.7" customHeight="1">
       <c r="A9" t="s" s="13">
         <v>10</v>
       </c>

--- a/instructions2.xlsx
+++ b/instructions2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>instruct_text</t>
   </si>
@@ -20,35 +20,22 @@
     <t>instruct_text2</t>
   </si>
   <si>
-    <t xml:space="preserve">In addition to reading all 16 stories, your task will be to answer perspective-related questions about each story.
-</t>
+    <t xml:space="preserve">Each of these perspectives will be applied to one story. </t>
   </si>
   <si>
-    <t>(press the space bar to continue)</t>
+    <t>(press space to continue)</t>
   </si>
   <si>
-    <t xml:space="preserve">You will answer the questions about each story after reading all 16 stories. </t>
+    <t>Each perspective has 4 questions, and you will answer these questions about each story.</t>
   </si>
   <si>
-    <t>There will be four questions to answer per story.</t>
+    <t xml:space="preserve">You’ll answer these questions about each story after reading all 8 stories. </t>
   </si>
   <si>
-    <t xml:space="preserve">These questions are determined by the perspective you take during the story. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The questions will be the same for the stories read with the same perspective. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before reading the stories, you will learn the questions associated with each career perspective in order to help you answer them. </t>
-  </si>
-  <si>
-    <t>You will have to try to learn these questions with a series of pre-task quizzes.</t>
+    <t>You’ll learn these questions with a series of pre-task quizzes and then the story reading will begin.</t>
   </si>
   <si>
     <t>Once the story-reading task has begun, remember your answers to the questions for each story.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Again, you will be asked about the answers to these questions for each story at end of the experiment. </t>
   </si>
   <si>
     <t>Press the space bar to begin learning the perspectives and the questions for each one.</t>
@@ -100,7 +87,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -111,7 +98,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -145,36 +132,6 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
         <color indexed="13"/>
       </bottom>
       <diagonal/>
@@ -187,10 +144,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -202,10 +159,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -214,52 +171,7 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -271,13 +183,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -286,28 +198,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -334,7 +231,52 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -350,7 +292,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -369,19 +311,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -390,22 +326,13 @@
     <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -430,8 +357,8 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
@@ -1494,7 +1421,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
@@ -1519,7 +1446,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" ht="98.7" customHeight="1">
+    <row r="2" ht="50.7" customHeight="1">
       <c r="A2" t="s" s="6">
         <v>2</v>
       </c>
@@ -1527,235 +1454,191 @@
         <v>3</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" ht="62.7" customHeight="1">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="74.7" customHeight="1">
       <c r="A3" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" ht="38.7" customHeight="1">
-      <c r="A4" t="s" s="13">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" ht="62.7" customHeight="1">
+      <c r="A4" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" ht="62.7" customHeight="1">
-      <c r="A5" t="s" s="13">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" ht="74.7" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" ht="62.7" customHeight="1">
-      <c r="A6" t="s" s="13">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" ht="74.7" customHeight="1">
+      <c r="A6" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" ht="98.7" customHeight="1">
-      <c r="A7" t="s" s="13">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" ht="74.7" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" ht="62.7" customHeight="1">
-      <c r="A8" t="s" s="13">
-        <v>9</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" ht="74.7" customHeight="1">
-      <c r="A9" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" ht="74.7" customHeight="1">
-      <c r="A10" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" ht="74.7" customHeight="1">
-      <c r="A11" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/instructions2.xlsx
+++ b/instructions2.xlsx
@@ -12,30 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>instruct_text</t>
   </si>
   <si>
     <t>instruct_text2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each of these perspectives will be applied to one story. </t>
-  </si>
-  <si>
-    <t>(press space to continue)</t>
-  </si>
-  <si>
-    <t>Each perspective has 4 questions, and you will answer these questions about each story.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You’ll answer these questions about each story after reading all 8 stories. </t>
-  </si>
-  <si>
-    <t>You’ll learn these questions with a series of pre-task quizzes and then the story reading will begin.</t>
-  </si>
-  <si>
-    <t>Once the story-reading task has begun, remember your answers to the questions for each story.</t>
   </si>
   <si>
     <t>Press the space bar to begin learning the perspectives and the questions for each one.</t>
@@ -52,7 +34,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -98,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -213,36 +195,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -259,6 +211,21 @@
     <border>
       <left style="thin">
         <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -292,7 +259,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -314,25 +281,22 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1421,7 +1385,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
@@ -1429,7 +1393,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1446,199 +1416,142 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" ht="50.7" customHeight="1">
+    <row r="2" ht="74.7" customHeight="1">
       <c r="A2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="7">
-        <v>3</v>
-      </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" ht="74.7" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="62.7" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="74.7" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="74.7" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="74.7" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/instructions2.xlsx
+++ b/instructions2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>instruct_text</t>
   </si>
@@ -20,7 +20,22 @@
     <t>instruct_text2</t>
   </si>
   <si>
-    <t>Press the space bar to begin learning the perspectives and the questions for each one.</t>
+    <t xml:space="preserve">You’ll become acquainted with these perspectives more in the following pre-task quizzes where you’ll learn the questions associated with each perspective. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’ll first go through all four questions for each perspective. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then, you’ll indicate the order in which you saw the questions during the quiz. </t>
+  </si>
+  <si>
+    <t>If you indicate the wrong question during the quiz, you’ll restart the learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After you’ve passed the learning for each perspective, you’ll have a round of final quizzes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press the space bar to begin the quizzes. </t>
   </si>
 </sst>
 </file>
@@ -34,7 +49,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -80,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -195,6 +210,36 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -211,21 +256,6 @@
     <border>
       <left style="thin">
         <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -259,7 +289,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -287,16 +317,19 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1418,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
@@ -1393,13 +1426,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1416,7 +1443,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" ht="74.7" customHeight="1">
+    <row r="2" ht="122.7" customHeight="1">
       <c r="A2" t="s" s="6">
         <v>2</v>
       </c>
@@ -1427,131 +1454,186 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+    <row r="3" ht="50.7" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" ht="62.7" customHeight="1">
+      <c r="A4" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" ht="62.7" customHeight="1">
+      <c r="A5" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" ht="74.7" customHeight="1">
+      <c r="A6" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" ht="38.7" customHeight="1">
+      <c r="A7" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/instructions2.xlsx
+++ b/instructions2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>instruct_text</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t xml:space="preserve">You’ll become acquainted with these perspectives more in the following pre-task quizzes where you’ll learn the questions associated with each perspective. </t>
+  </si>
+  <si>
+    <t>(press space to continue)</t>
   </si>
   <si>
     <t xml:space="preserve">You’ll first go through all four questions for each perspective. </t>
@@ -45,7 +48,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -57,13 +60,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,18 +92,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="16"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -108,7 +110,22 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -120,16 +137,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -141,10 +158,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -156,10 +173,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -168,112 +185,7 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -289,47 +201,38 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -351,12 +254,9 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -373,10 +273,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -553,11 +453,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -566,27 +469,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -843,10 +746,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1137,7 +1040,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1420,9 +1323,7 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1438,202 +1339,204 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="122.7" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="A2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="50.7" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="B2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" ht="62.7" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="50.7" customHeight="1">
+      <c r="A3" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" ht="62.7" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="62.7" customHeight="1">
+      <c r="A4" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" ht="74.7" customHeight="1">
-      <c r="A6" t="s" s="6">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="62.7" customHeight="1">
+      <c r="A5" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" ht="38.7" customHeight="1">
-      <c r="A7" t="s" s="6">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="74.7" customHeight="1">
+      <c r="A6" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="38.7" customHeight="1">
+      <c r="A7" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/instructions2.xlsx
+++ b/instructions2.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">You’ll first go through all four questions for each perspective. </t>
   </si>
   <si>
-    <t xml:space="preserve">Then, you’ll indicate the order in which you saw the questions during the quiz. </t>
+    <t xml:space="preserve">Then, you’ll indicate the order in which you saw the questions during the quiz by pressing the number in front of the question. </t>
   </si>
   <si>
     <t>If you indicate the wrong question during the quiz, you’ll restart the learning.</t>
@@ -214,7 +214,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -223,16 +223,16 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1327,7 +1327,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
